--- a/public/download_template/template_nonASN.xlsx
+++ b/public/download_template/template_nonASN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.28\sikepeg\public\download_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sikepeg\public\download_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741F082-EB52-47AB-A71C-9FA588D661E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E69D32-7F9A-4E18-884D-57382A6C9025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57181BDE-8C23-4B74-AD5C-53F8DA130C3E}"/>
+    <workbookView xWindow="9855" yWindow="15" windowWidth="26220" windowHeight="11505" xr2:uid="{57181BDE-8C23-4B74-AD5C-53F8DA130C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>NIK</t>
   </si>
@@ -102,9 +102,6 @@
     <t>S.Tr</t>
   </si>
   <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
     <t>Malang</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>Status Tipe</t>
+  </si>
+  <si>
+    <t>087665321009</t>
+  </si>
+  <si>
+    <t>[laki-laki,Perempuan]</t>
   </si>
 </sst>
 </file>
@@ -183,13 +186,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3DDE1-1759-44DB-A38B-0CB1AE712889}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W1" activeCellId="2" sqref="I1:I1048576 T1:T1048576 W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,10 +526,10 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
@@ -529,9 +537,9 @@
     <col min="17" max="17" width="13.42578125" customWidth="1"/>
     <col min="18" max="18" width="13.5703125" customWidth="1"/>
     <col min="19" max="19" width="13.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="5" customWidth="1"/>
     <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -559,7 +567,7 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -584,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
@@ -592,7 +600,7 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -601,7 +609,7 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -623,43 +631,43 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="I2" s="3">
         <v>37174</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2">
-        <v>87665321009</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2">
         <v>2045</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="R2" s="2">
         <v>765635</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="3">
         <v>45575</v>
@@ -668,7 +676,7 @@
         <v>66432116</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" s="3">
         <v>45940</v>
@@ -683,7 +691,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -694,10 +702,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="W3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/download_template/template_nonASN.xlsx
+++ b/public/download_template/template_nonASN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sikepeg\public\download_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E69D32-7F9A-4E18-884D-57382A6C9025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09838C6-34A8-4EF1-982D-A838FA01800A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="15" windowWidth="26220" windowHeight="11505" xr2:uid="{57181BDE-8C23-4B74-AD5C-53F8DA130C3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57181BDE-8C23-4B74-AD5C-53F8DA130C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3DDE1-1759-44DB-A38B-0CB1AE712889}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W1" activeCellId="2" sqref="I1:I1048576 T1:T1048576 W1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="3">
-        <v>37174</v>
+        <v>36443</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
